--- a/biology/Virologie/Metaviridae/Metaviridae.xlsx
+++ b/biology/Virologie/Metaviridae/Metaviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Metaviridae sont une famille de virus de l'ordre des  	Ortervirales, qui comprend deux genres et 31 espèces infectant divers organismes : Protozoaires, Champignons, Invertébrés, Vertébrés ou Plantes. Ce sont des rétrotransposons et des virus à transcription inverse avec de longues répétitions terminales (LTR) communément appelés rétroéléments Ty3 / Gypsy LTR dans la littérature scientifique[2]. Ils sont classés dans le groupe VI de la classification Baltimore (rétrovirus à ARN simple brin). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Metaviridae sont une famille de virus de l'ordre des  	Ortervirales, qui comprend deux genres et 31 espèces infectant divers organismes : Protozoaires, Champignons, Invertébrés, Vertébrés ou Plantes. Ce sont des rétrotransposons et des virus à transcription inverse avec de longues répétitions terminales (LTR) communément appelés rétroéléments Ty3 / Gypsy LTR dans la littérature scientifique. Ils sont classés dans le groupe VI de la classification Baltimore (rétrovirus à ARN simple brin). 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ICTV[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ICTV :
 genre Errantivirus, espèce-type : Drosophila melanogaster gypsy virus
 genre Metavirus, espèce-type : Saccharomyces cerevisiae Ty3 virus
-Un troisième genre, Semotivirus, initialement inclus dans cette famille a été transféré en 2018 dans une nouvelle famille, celle des Pelpaoviridae[3].
+Un troisième genre, Semotivirus, initialement inclus dans cette famille a été transféré en 2018 dans une nouvelle famille, celle des Pelpaoviridae.
 </t>
         </is>
       </c>
